--- a/manual_fixes_pombase/allele_needs_supervision.xlsx
+++ b/manual_fixes_pombase/allele_needs_supervision.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manu/Documents/Projects/allele_qc/manual_fixes_pombase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393C4C9F-5AC9-A641-B1C8-10AE5EEBE0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD681715-8F52-2549-9B9B-AE1B29B84BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33540" yWindow="-6600" windowWidth="51200" windowHeight="24120" xr2:uid="{63853679-EB03-5D4A-AFFA-6B392376BA53}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{63853679-EB03-5D4A-AFFA-6B392376BA53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>change_type_to</t>
   </si>
   <si>
-    <t>rename_to</t>
-  </si>
-  <si>
     <t>after_coords_rename_to</t>
   </si>
   <si>
@@ -2587,6 +2584,9 @@
   </si>
   <si>
     <t>manual_fix_decision</t>
+  </si>
+  <si>
+    <t>change_description_to</t>
   </si>
 </sst>
 </file>
@@ -3109,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD75C98-AFEB-684A-B259-57D971722FA0}">
   <dimension ref="A1:P163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F112" workbookViewId="0">
-      <selection activeCell="J146" sqref="J146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3123,7 +3123,7 @@
     <col min="6" max="6" width="32.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="69.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="28.83203125" style="1" customWidth="1"/>
@@ -3144,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -3156,5307 +3156,5307 @@
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="N1" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>697</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>700</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>702</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>706</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>707</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>707</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>709</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D27" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="D36" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M36" s="10"/>
       <c r="N36" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>712</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>154</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M37" s="10"/>
       <c r="N37" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>159</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K38" s="10"/>
       <c r="L38" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M38" s="10"/>
       <c r="N38" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B39" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="D39" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M39" s="10"/>
       <c r="N39" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K40" s="10"/>
       <c r="L40" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M40" s="10"/>
       <c r="N40" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B41" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="D41" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>715</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M41" s="10"/>
       <c r="N41" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>716</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K42" s="10"/>
       <c r="L42" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M42" s="10"/>
       <c r="N42" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="D43" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>717</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K43" s="10"/>
       <c r="L43" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M43" s="10"/>
       <c r="N43" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C44" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>717</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K44" s="10"/>
       <c r="L44" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M44" s="10"/>
       <c r="N44" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C45" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>718</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M45" s="10"/>
       <c r="N45" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C46" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>717</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K46" s="10"/>
       <c r="L46" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M46" s="10"/>
       <c r="N46" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C47" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>196</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M47" s="10"/>
       <c r="N47" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C48" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>720</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M48" s="10"/>
       <c r="N48" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B49" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="D49" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>721</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>204</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M49" s="10"/>
       <c r="N49" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>721</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>208</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M50" s="10"/>
       <c r="N50" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="D51" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>722</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>213</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M51" s="10"/>
       <c r="N51" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B52" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="D52" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B53" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="D53" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>221</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>724</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>222</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M53" s="10"/>
       <c r="N53" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="D54" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>725</v>
-      </c>
-      <c r="E54" s="11" t="s">
+      <c r="F54" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>228</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B55" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="D55" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="11" t="s">
         <v>231</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>726</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>232</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B56" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="11" t="s">
         <v>236</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>727</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>237</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C57" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>728</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>241</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M57" s="10"/>
       <c r="N57" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="11" t="s">
+      <c r="D58" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J58" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="K58" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="K58" s="11" t="s">
-        <v>249</v>
-      </c>
       <c r="L58" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M58" s="10"/>
       <c r="N58" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>251</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="J59" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="K59" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="K59" s="11" t="s">
-        <v>254</v>
-      </c>
       <c r="L59" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M59" s="10"/>
       <c r="N59" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B60" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="D60" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>729</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>257</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K60" s="10"/>
       <c r="L60" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M60" s="10"/>
       <c r="N60" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B61" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="D61" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>730</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
       <c r="N61" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="D62" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>731</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>266</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K62" s="10"/>
       <c r="L62" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M62" s="10"/>
       <c r="N62" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="D63" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>732</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>271</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M63" s="10"/>
       <c r="N63" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B64" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="D64" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>733</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>276</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
       <c r="J64" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K64" s="10"/>
       <c r="L64" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M64" s="10"/>
       <c r="N64" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="65" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B65" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="D65" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="13" t="s">
         <v>280</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>281</v>
       </c>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K65" s="13"/>
       <c r="L65" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M65" s="13"/>
       <c r="N65" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="66" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C66" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>285</v>
       </c>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K66" s="13"/>
       <c r="L66" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M66" s="13"/>
       <c r="N66" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="67" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C67" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>289</v>
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K67" s="13"/>
       <c r="L67" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M67" s="13"/>
       <c r="N67" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="68" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C68" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="13" t="s">
         <v>292</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>293</v>
       </c>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K68" s="13"/>
       <c r="L68" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M68" s="13"/>
       <c r="N68" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="69" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C69" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="13" t="s">
         <v>296</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>297</v>
       </c>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
       <c r="J69" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K69" s="13"/>
       <c r="L69" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M69" s="13"/>
       <c r="N69" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="70" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C70" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K70" s="13"/>
       <c r="L70" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M70" s="13"/>
       <c r="N70" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="71" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C71" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="13" t="s">
         <v>304</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>305</v>
       </c>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K71" s="13"/>
       <c r="L71" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M71" s="13"/>
       <c r="N71" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="72" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C72" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="13" t="s">
         <v>308</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>309</v>
       </c>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K72" s="13"/>
       <c r="L72" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M72" s="13"/>
       <c r="N72" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="73" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C73" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="13" t="s">
         <v>312</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>313</v>
       </c>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
       <c r="J73" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K73" s="13"/>
       <c r="L73" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M73" s="13"/>
       <c r="N73" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="74" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C74" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="13" t="s">
         <v>316</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>317</v>
       </c>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K74" s="13"/>
       <c r="L74" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M74" s="13"/>
       <c r="N74" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="75" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C75" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="13" t="s">
         <v>320</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>321</v>
       </c>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
       <c r="J75" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K75" s="13"/>
       <c r="L75" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M75" s="13"/>
       <c r="N75" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="76" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C76" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="13" t="s">
         <v>324</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>325</v>
       </c>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K76" s="13"/>
       <c r="L76" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M76" s="13"/>
       <c r="N76" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="77" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C77" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="13" t="s">
         <v>328</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>329</v>
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
       <c r="J77" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K77" s="13"/>
       <c r="L77" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M77" s="13"/>
       <c r="N77" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="78" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C78" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="13" t="s">
         <v>332</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>333</v>
       </c>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K78" s="13"/>
       <c r="L78" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M78" s="13"/>
       <c r="N78" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="79" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C79" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="13" t="s">
         <v>335</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>336</v>
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
       <c r="J79" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K79" s="13"/>
       <c r="L79" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M79" s="13"/>
       <c r="N79" s="12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="80" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B80" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="D80" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="11" t="s">
         <v>339</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>340</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K80" s="10"/>
       <c r="L80" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M80" s="10"/>
       <c r="N80" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="81" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C81" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>344</v>
       </c>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M81" s="10"/>
       <c r="N81" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B82" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="D82" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="7" t="s">
+      <c r="J82" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="J82" s="7" t="s">
-        <v>350</v>
-      </c>
       <c r="N82" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="83" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B83" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="D83" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="11" t="s">
         <v>352</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>739</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>353</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
       <c r="J83" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M83" s="10"/>
       <c r="N83" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="84" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B84" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="D84" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="11" t="s">
         <v>357</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>740</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>358</v>
       </c>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
       <c r="J84" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M84" s="10"/>
       <c r="N84" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B85" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="D85" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="11" t="s">
         <v>362</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>363</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
       <c r="J85" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K85" s="10"/>
       <c r="L85" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M85" s="10"/>
       <c r="N85" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C86" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>742</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
       <c r="J86" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K86" s="10"/>
       <c r="L86" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M86" s="10"/>
       <c r="N86" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="87" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C87" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>371</v>
       </c>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
       <c r="J87" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K87" s="10"/>
       <c r="L87" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M87" s="10"/>
       <c r="N87" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="88" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C88" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>375</v>
       </c>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
       <c r="J88" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K88" s="10"/>
       <c r="L88" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M88" s="10"/>
       <c r="N88" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="89" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B89" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="D89" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="D89" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="11" t="s">
+      <c r="G89" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="G89" s="11" t="s">
+      <c r="H89" s="11" t="s">
         <v>381</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>382</v>
       </c>
       <c r="I89" s="10"/>
       <c r="J89" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K89" s="10"/>
       <c r="L89" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M89" s="10"/>
       <c r="N89" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="90" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B90" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="D90" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="11" t="s">
         <v>386</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>387</v>
       </c>
       <c r="G90" s="10"/>
       <c r="H90" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I90" s="10"/>
       <c r="J90" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="91" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B91" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="C91" s="11" t="s">
-        <v>391</v>
-      </c>
       <c r="D91" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
       <c r="J91" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K91" s="10"/>
       <c r="L91" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M91" s="10"/>
       <c r="N91" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
       <c r="J92" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K92" s="10"/>
       <c r="L92" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M92" s="10"/>
       <c r="N92" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="93" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C93" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>394</v>
       </c>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
       <c r="J93" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K93" s="10"/>
       <c r="L93" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M93" s="10"/>
       <c r="N93" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="94" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C94" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="11" t="s">
         <v>397</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>398</v>
       </c>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
       <c r="J94" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K94" s="10"/>
       <c r="L94" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M94" s="10"/>
       <c r="N94" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="95" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C95" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="11" t="s">
         <v>401</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>402</v>
       </c>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
       <c r="J95" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K95" s="10"/>
       <c r="L95" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M95" s="10"/>
       <c r="N95" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="96" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
       <c r="J96" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K96" s="10"/>
       <c r="L96" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M96" s="10"/>
       <c r="N96" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="97" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B97" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="C97" s="11" t="s">
-        <v>406</v>
-      </c>
       <c r="D97" s="11" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
       <c r="J97" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K97" s="10"/>
       <c r="L97" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M97" s="10"/>
       <c r="N97" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="98" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B98" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C98" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="D98" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="11" t="s">
         <v>408</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>409</v>
       </c>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
       <c r="J98" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
       <c r="N98" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="99" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C99" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>749</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>412</v>
       </c>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
       <c r="J99" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
       <c r="N99" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="100" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B100" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C100" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="D100" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="11" t="s">
         <v>414</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>415</v>
       </c>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
       <c r="J100" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K100" s="10"/>
       <c r="L100" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M100" s="10"/>
       <c r="N100" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="101" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C101" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="11" t="s">
         <v>418</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>419</v>
       </c>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
       <c r="J101" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K101" s="10"/>
       <c r="L101" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M101" s="10"/>
       <c r="N101" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="102" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B102" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="D102" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="11" t="s">
         <v>422</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>751</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>423</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
       <c r="J102" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K102" s="10"/>
       <c r="L102" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M102" s="10"/>
       <c r="N102" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="103" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B103" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C103" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="D103" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="11" t="s">
         <v>427</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>428</v>
       </c>
       <c r="G103" s="10"/>
       <c r="H103" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I103" s="10"/>
       <c r="J103" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
       <c r="N103" s="10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="104" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C104" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>432</v>
       </c>
       <c r="G104" s="10"/>
       <c r="H104" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
       <c r="N104" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="105" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B105" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="C105" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="D105" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="11" t="s">
         <v>436</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>753</v>
-      </c>
-      <c r="E105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>437</v>
       </c>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
       <c r="J105" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K105" s="10"/>
       <c r="L105" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M105" s="10"/>
       <c r="N105" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="106" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B106" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C106" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="D106" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="11" t="s">
         <v>441</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>754</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>442</v>
       </c>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
       <c r="J106" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K106" s="10"/>
       <c r="L106" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M106" s="10"/>
       <c r="N106" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="O106" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="107" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B107" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C107" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="D107" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="11" t="s">
         <v>446</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>755</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>447</v>
       </c>
       <c r="G107" s="10"/>
       <c r="H107" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I107" s="10"/>
       <c r="J107" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
       <c r="M107" s="10"/>
       <c r="N107" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="108" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B108" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="D108" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="11" t="s">
         <v>451</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>452</v>
       </c>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
       <c r="J108" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K108" s="10"/>
       <c r="L108" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M108" s="10"/>
       <c r="N108" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="109" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C109" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="11" t="s">
         <v>455</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>456</v>
       </c>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
       <c r="I109" s="10"/>
       <c r="J109" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K109" s="10"/>
       <c r="L109" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M109" s="10"/>
       <c r="N109" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="110" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B110" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C110" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="D110" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="D110" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" s="11" t="s">
+      <c r="J110" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="J110" s="11" t="s">
+      <c r="L110" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="L110" s="11" t="s">
-        <v>463</v>
-      </c>
       <c r="N110" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="111" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B111" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="C111" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="D111" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="E111" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D111" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="E111" s="11" t="s">
+      <c r="F111" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="F111" s="11" t="s">
+      <c r="H111" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="H111" s="11" t="s">
+      <c r="J111" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="J111" s="11" t="s">
-        <v>469</v>
-      </c>
       <c r="N111" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="112" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C112" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="F112" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="D112" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="F112" s="11" t="s">
+      <c r="H112" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="H112" s="11" t="s">
+      <c r="J112" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="J112" s="11" t="s">
-        <v>473</v>
-      </c>
       <c r="N112" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="113" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B113" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C113" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="D113" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="D113" s="11" t="s">
-        <v>760</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" s="11" t="s">
+      <c r="J113" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="J113" s="11" t="s">
+      <c r="L113" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="L113" s="11" t="s">
-        <v>478</v>
-      </c>
       <c r="N113" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C114" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="D114" s="11" t="s">
-        <v>761</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" s="11" t="s">
+      <c r="J114" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="J114" s="11" t="s">
+      <c r="L114" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="L114" s="11" t="s">
-        <v>482</v>
-      </c>
       <c r="N114" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="115" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B115" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C115" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="D115" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="D115" s="11" t="s">
-        <v>762</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" s="11" t="s">
+      <c r="J115" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="J115" s="11" t="s">
+      <c r="L115" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="L115" s="11" t="s">
-        <v>487</v>
-      </c>
       <c r="N115" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="P115" s="10" t="s">
         <v>822</v>
-      </c>
-      <c r="P115" s="10" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="116" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B116" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C116" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="D116" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="D116" s="11" t="s">
-        <v>763</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" s="11" t="s">
+      <c r="J116" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="J116" s="11" t="s">
+      <c r="L116" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="L116" s="11" t="s">
-        <v>492</v>
-      </c>
       <c r="N116" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="117" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B117" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="C117" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="D117" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="D117" s="11" t="s">
-        <v>764</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" s="11" t="s">
+      <c r="I117" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="I117" s="11" t="s">
+      <c r="J117" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="J117" s="11" t="s">
+      <c r="K117" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="K117" s="11" t="s">
-        <v>498</v>
-      </c>
       <c r="L117" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N117" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C118" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="D118" s="11" t="s">
-        <v>764</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" s="11" t="s">
+      <c r="H118" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="H118" s="11" t="s">
+      <c r="I118" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="I118" s="11" t="s">
+      <c r="J118" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="J118" s="11" t="s">
+      <c r="K118" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="K118" s="11" t="s">
-        <v>504</v>
-      </c>
       <c r="N118" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C119" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="D119" s="11" t="s">
-        <v>764</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" s="11" t="s">
+      <c r="H119" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="H119" s="11" t="s">
+      <c r="I119" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="I119" s="11" t="s">
+      <c r="J119" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="J119" s="11" t="s">
+      <c r="K119" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="K119" s="11" t="s">
-        <v>510</v>
-      </c>
       <c r="N119" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="120" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C120" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="D120" s="11" t="s">
-        <v>764</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="11" t="s">
+      <c r="H120" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="H120" s="11" t="s">
+      <c r="I120" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="I120" s="11" t="s">
+      <c r="J120" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="J120" s="11" t="s">
+      <c r="K120" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="K120" s="11" t="s">
-        <v>516</v>
-      </c>
       <c r="N120" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="121" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B121" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="C121" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="D121" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="D121" s="11" t="s">
-        <v>765</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" s="11" t="s">
+      <c r="J121" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="J121" s="11" t="s">
+      <c r="L121" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="L121" s="11" t="s">
-        <v>521</v>
-      </c>
       <c r="N121" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="122" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C122" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="D122" s="11" t="s">
-        <v>765</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" s="11" t="s">
+      <c r="J122" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="J122" s="11" t="s">
+      <c r="L122" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="L122" s="11" t="s">
-        <v>525</v>
-      </c>
       <c r="N122" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="123" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C123" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="D123" s="11" t="s">
-        <v>765</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" s="11" t="s">
+      <c r="J123" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="J123" s="11" t="s">
+      <c r="L123" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="L123" s="11" t="s">
-        <v>529</v>
-      </c>
       <c r="N123" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="124" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B124" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C124" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="C124" s="11" t="s">
-        <v>531</v>
-      </c>
       <c r="D124" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F124" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J124" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="J124" s="11" t="s">
+      <c r="L124" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="L124" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="N124" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B125" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C125" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="D125" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="D125" s="11" t="s">
-        <v>767</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" s="11" t="s">
+      <c r="J125" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="J125" s="11" t="s">
+      <c r="L125" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="L125" s="11" t="s">
-        <v>536</v>
-      </c>
       <c r="N125" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="126" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C126" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="D126" s="11" t="s">
-        <v>768</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" s="11" t="s">
+      <c r="J126" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="J126" s="11" t="s">
+      <c r="L126" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="L126" s="11" t="s">
-        <v>540</v>
-      </c>
       <c r="N126" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="127" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C127" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="D127" s="11" t="s">
-        <v>769</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" s="11" t="s">
+      <c r="J127" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="J127" s="11" t="s">
+      <c r="L127" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="L127" s="11" t="s">
-        <v>544</v>
-      </c>
       <c r="N127" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="128" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F128" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="L128" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="J128" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="L128" s="11" t="s">
-        <v>190</v>
-      </c>
       <c r="N128" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="129" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F129" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J129" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="J129" s="11" t="s">
+      <c r="L129" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="L129" s="11" t="s">
-        <v>194</v>
-      </c>
       <c r="N129" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="130" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F130" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="L130" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J130" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L130" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="N130" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="131" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F131" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="J131" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="L131" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="J131" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L131" s="11" t="s">
-        <v>403</v>
-      </c>
       <c r="N131" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="132" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C132" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="D132" s="11" t="s">
-        <v>768</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" s="11" t="s">
+      <c r="J132" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="J132" s="11" t="s">
+      <c r="L132" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="L132" s="11" t="s">
-        <v>552</v>
-      </c>
       <c r="N132" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="133" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F133" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="J133" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="J133" s="11" t="s">
+      <c r="L133" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="L133" s="11" t="s">
-        <v>201</v>
-      </c>
       <c r="N133" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="134" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B134" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="C134" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="D134" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="D134" s="11" t="s">
-        <v>773</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F134" s="11" t="s">
+      <c r="J134" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="J134" s="11" t="s">
+      <c r="L134" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="L134" s="11" t="s">
-        <v>558</v>
-      </c>
       <c r="N134" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="135" spans="1:16" s="15" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B135" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="C135" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C135" s="14" t="s">
+      <c r="D135" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="D135" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F135" s="14" t="s">
+      <c r="J135" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="J135" s="14" t="s">
+      <c r="L135" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="L135" s="14" t="s">
-        <v>563</v>
-      </c>
       <c r="N135" s="15" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="136" spans="1:16" s="10" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B136" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C136" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="D136" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="D136" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" s="11" t="s">
+      <c r="J136" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="J136" s="11" t="s">
+      <c r="L136" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="L136" s="11" t="s">
-        <v>568</v>
-      </c>
       <c r="N136" s="10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="137" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C137" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="D137" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" s="11" t="s">
+      <c r="J137" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="L137" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="J137" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="L137" s="11" t="s">
-        <v>571</v>
-      </c>
       <c r="N137" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="138" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B138" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C138" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="D138" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="D138" s="11" t="s">
-        <v>776</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F138" s="11" t="s">
+      <c r="J138" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="J138" s="11" t="s">
+      <c r="L138" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="L138" s="11" t="s">
-        <v>576</v>
-      </c>
       <c r="N138" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="139" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B139" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="C139" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="D139" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="D139" s="11" t="s">
-        <v>777</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F139" s="11" t="s">
+      <c r="J139" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="J139" s="11" t="s">
+      <c r="L139" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="L139" s="11" t="s">
-        <v>581</v>
-      </c>
       <c r="N139" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P139" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="140" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B140" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="C140" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="D140" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="D140" s="11" t="s">
-        <v>778</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F140" s="11" t="s">
+      <c r="J140" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="J140" s="11" t="s">
+      <c r="L140" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="L140" s="11" t="s">
-        <v>586</v>
-      </c>
       <c r="N140" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="P140" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="141" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B141" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="C141" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="D141" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="D141" s="11" t="s">
-        <v>779</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" s="11" t="s">
+      <c r="J141" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="J141" s="11" t="s">
+      <c r="L141" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="L141" s="11" t="s">
-        <v>591</v>
-      </c>
       <c r="N141" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="P141" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="142" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C142" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="D142" s="11" t="s">
-        <v>779</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F142" s="11" t="s">
+      <c r="J142" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="J142" s="11" t="s">
+      <c r="L142" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="L142" s="11" t="s">
-        <v>595</v>
-      </c>
       <c r="N142" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="P142" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="143" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B143" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="C143" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="C143" s="11" t="s">
+      <c r="D143" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="D143" s="11" t="s">
-        <v>780</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" s="11" t="s">
+      <c r="J143" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="J143" s="11" t="s">
+      <c r="L143" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="L143" s="11" t="s">
-        <v>600</v>
-      </c>
       <c r="N143" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="144" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B144" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="C144" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="D144" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="D144" s="11" t="s">
-        <v>781</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" s="11" t="s">
+      <c r="J144" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="J144" s="11" t="s">
+      <c r="L144" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="L144" s="11" t="s">
-        <v>605</v>
-      </c>
       <c r="N144" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="145" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C145" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="D145" s="11" t="s">
-        <v>781</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" s="11" t="s">
+      <c r="J145" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="L145" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="J145" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="L145" s="11" t="s">
-        <v>608</v>
-      </c>
       <c r="N145" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="146" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="C146" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="D146" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="D146" s="11" t="s">
-        <v>782</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" s="11" t="s">
+      <c r="J146" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="J146" s="11" t="s">
+      <c r="L146" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="L146" s="11" t="s">
-        <v>613</v>
-      </c>
       <c r="N146" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="O146" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="P146" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="147" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="C147" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="D147" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="D147" s="11" t="s">
-        <v>783</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" s="11" t="s">
+      <c r="J147" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="J147" s="11" t="s">
+      <c r="L147" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="L147" s="11" t="s">
-        <v>618</v>
-      </c>
       <c r="N147" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="P147" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="148" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C148" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="D148" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="D148" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" s="11" t="s">
+      <c r="J148" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="J148" s="11" t="s">
+      <c r="L148" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="L148" s="11" t="s">
-        <v>623</v>
-      </c>
       <c r="N148" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="149" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B149" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C149" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="D149" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="D149" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" s="11" t="s">
+      <c r="J149" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="J149" s="11" t="s">
+      <c r="L149" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="L149" s="11" t="s">
-        <v>628</v>
-      </c>
       <c r="N149" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P149" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="150" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B150" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="C150" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="D150" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="D150" s="11" t="s">
-        <v>786</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F150" s="11" t="s">
+      <c r="J150" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="J150" s="11" t="s">
+      <c r="L150" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="L150" s="11" t="s">
-        <v>633</v>
-      </c>
       <c r="N150" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="151" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B151" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C151" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="D151" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="D151" s="11" t="s">
-        <v>787</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F151" s="11" t="s">
+      <c r="J151" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="J151" s="11" t="s">
+      <c r="L151" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="L151" s="11" t="s">
-        <v>638</v>
-      </c>
       <c r="N151" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O151" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="P151" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="152" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B152" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="C152" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="D152" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="D152" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" s="11" t="s">
+      <c r="J152" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="J152" s="11" t="s">
+      <c r="L152" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="L152" s="11" t="s">
-        <v>643</v>
-      </c>
       <c r="N152" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="153" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B153" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="D153" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="D153" s="11" t="s">
-        <v>789</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F153" s="11" t="s">
+      <c r="J153" s="11" t="s">
         <v>646</v>
       </c>
-      <c r="J153" s="11" t="s">
+      <c r="L153" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="L153" s="11" t="s">
-        <v>648</v>
-      </c>
       <c r="N153" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="154" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B154" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C154" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="D154" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="D154" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F154" s="11" t="s">
+      <c r="J154" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="J154" s="11" t="s">
+      <c r="L154" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="L154" s="11" t="s">
-        <v>653</v>
-      </c>
       <c r="N154" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="155" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C155" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="D155" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" s="11" t="s">
+      <c r="J155" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="J155" s="11" t="s">
+      <c r="L155" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="L155" s="11" t="s">
-        <v>657</v>
-      </c>
       <c r="N155" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="156" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B156" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="C156" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="C156" s="11" t="s">
+      <c r="D156" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="D156" s="11" t="s">
-        <v>791</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F156" s="11" t="s">
+      <c r="J156" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="J156" s="11" t="s">
+      <c r="L156" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="L156" s="11" t="s">
-        <v>662</v>
-      </c>
       <c r="N156" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="157" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B157" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="C157" s="11" t="s">
         <v>663</v>
       </c>
-      <c r="C157" s="11" t="s">
+      <c r="D157" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="D157" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="E157" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F157" s="11" t="s">
+      <c r="J157" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="J157" s="11" t="s">
+      <c r="L157" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="L157" s="11" t="s">
-        <v>667</v>
-      </c>
       <c r="N157" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="158" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B158" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="C158" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="D158" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="E158" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="D158" s="11" t="s">
-        <v>793</v>
-      </c>
-      <c r="E158" s="11" t="s">
+      <c r="F158" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="F158" s="11" t="s">
+      <c r="G158" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J158" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="G158" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J158" s="11" t="s">
+      <c r="L158" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="L158" s="11" t="s">
-        <v>673</v>
-      </c>
       <c r="N158" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P158" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="159" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B159" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="C159" s="16" t="s">
         <v>674</v>
       </c>
-      <c r="C159" s="16" t="s">
+      <c r="D159" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" s="16" t="s">
         <v>675</v>
       </c>
-      <c r="D159" s="16" t="s">
-        <v>794</v>
-      </c>
-      <c r="E159" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159" s="16" t="s">
+      <c r="J159" s="16" t="s">
         <v>676</v>
       </c>
-      <c r="J159" s="16" t="s">
+      <c r="L159" s="16" t="s">
         <v>677</v>
       </c>
-      <c r="L159" s="16" t="s">
-        <v>678</v>
-      </c>
       <c r="N159" s="17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="160" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B160" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="C160" s="16" t="s">
         <v>679</v>
       </c>
-      <c r="C160" s="16" t="s">
+      <c r="D160" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" s="16" t="s">
         <v>680</v>
       </c>
-      <c r="D160" s="16" t="s">
+      <c r="J160" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="L160" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="N160" s="17" t="s">
         <v>795</v>
-      </c>
-      <c r="E160" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F160" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="J160" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="L160" s="16" t="s">
-        <v>683</v>
-      </c>
-      <c r="N160" s="17" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="161" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C161" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="16" t="s">
         <v>684</v>
       </c>
-      <c r="D161" s="16" t="s">
+      <c r="J161" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="L161" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="N161" s="17" t="s">
         <v>795</v>
-      </c>
-      <c r="E161" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="J161" s="16" t="s">
-        <v>686</v>
-      </c>
-      <c r="L161" s="16" t="s">
-        <v>687</v>
-      </c>
-      <c r="N161" s="17" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="162" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C162" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="D162" s="16" t="s">
+      <c r="J162" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="L162" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="N162" s="17" t="s">
         <v>795</v>
-      </c>
-      <c r="E162" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F162" s="16" t="s">
-        <v>689</v>
-      </c>
-      <c r="J162" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="L162" s="16" t="s">
-        <v>691</v>
-      </c>
-      <c r="N162" s="17" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="163" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C163" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="16" t="s">
         <v>692</v>
       </c>
-      <c r="D163" s="16" t="s">
+      <c r="J163" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="L163" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="N163" s="17" t="s">
         <v>795</v>
-      </c>
-      <c r="E163" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F163" s="16" t="s">
-        <v>693</v>
-      </c>
-      <c r="J163" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="L163" s="16" t="s">
-        <v>695</v>
-      </c>
-      <c r="N163" s="17" t="s">
-        <v>796</v>
       </c>
     </row>
   </sheetData>

--- a/manual_fixes_pombase/allele_needs_supervision.xlsx
+++ b/manual_fixes_pombase/allele_needs_supervision.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manu/Documents/Projects/allele_qc/manual_fixes_pombase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDAE1AA-98B5-DE49-B387-320C3A5C7110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85CB1F8-2371-744E-B07D-F3BF0926714C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="460" windowWidth="26600" windowHeight="16560" xr2:uid="{63853679-EB03-5D4A-AFFA-6B392376BA53}"/>
+    <workbookView xWindow="25620" yWindow="-2180" windowWidth="26600" windowHeight="16560" xr2:uid="{63853679-EB03-5D4A-AFFA-6B392376BA53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="allele_needs_supervision" localSheetId="0">Sheet1!$A$1:$M$163</definedName>
+    <definedName name="allele_needs_supervision" localSheetId="0">Sheet1!$A$1:$M$147</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="775">
   <si>
     <t>fix_type</t>
   </si>
@@ -891,183 +891,6 @@
     <t>E249A,D251A</t>
   </si>
   <si>
-    <t>SPAC3A12.14</t>
-  </si>
-  <si>
-    <t>cam1-D116</t>
-  </si>
-  <si>
-    <t>R116D</t>
-  </si>
-  <si>
-    <t>R116&gt;R117</t>
-  </si>
-  <si>
-    <t>R117D</t>
-  </si>
-  <si>
-    <t>cam1-E0</t>
-  </si>
-  <si>
-    <t>E31V,E67V,E104V,E140V</t>
-  </si>
-  <si>
-    <t>E31|E67|E104&gt;E105|E140&gt;E141</t>
-  </si>
-  <si>
-    <t>E31V,E67V,E105V,E141V</t>
-  </si>
-  <si>
-    <t>cam1-E1</t>
-  </si>
-  <si>
-    <t>E67V,E104V,E140V</t>
-  </si>
-  <si>
-    <t>E67|E104&gt;E105|E140&gt;E141</t>
-  </si>
-  <si>
-    <t>E67V,E105V,E141V</t>
-  </si>
-  <si>
-    <t>cam1-E12</t>
-  </si>
-  <si>
-    <t>E104V,E140V</t>
-  </si>
-  <si>
-    <t>E104&gt;E105|E140&gt;E141</t>
-  </si>
-  <si>
-    <t>E105V,E141V</t>
-  </si>
-  <si>
-    <t>cam1-E123</t>
-  </si>
-  <si>
-    <t>E140V</t>
-  </si>
-  <si>
-    <t>E140&gt;E141</t>
-  </si>
-  <si>
-    <t>E141V</t>
-  </si>
-  <si>
-    <t>cam1-E124</t>
-  </si>
-  <si>
-    <t>E104V</t>
-  </si>
-  <si>
-    <t>E104&gt;E105</t>
-  </si>
-  <si>
-    <t>E105V</t>
-  </si>
-  <si>
-    <t>cam1-E13</t>
-  </si>
-  <si>
-    <t>E67V,E140V</t>
-  </si>
-  <si>
-    <t>E67|E140&gt;E141</t>
-  </si>
-  <si>
-    <t>E67V,E141V</t>
-  </si>
-  <si>
-    <t>cam1-E14</t>
-  </si>
-  <si>
-    <t>E67V,E104V</t>
-  </si>
-  <si>
-    <t>E67|E104&gt;E105</t>
-  </si>
-  <si>
-    <t>E67V,E105V</t>
-  </si>
-  <si>
-    <t>cam1-E2</t>
-  </si>
-  <si>
-    <t>E31V,E104V,E140V</t>
-  </si>
-  <si>
-    <t>E31|E104&gt;E105|E140&gt;E141</t>
-  </si>
-  <si>
-    <t>E31V,E105V,E141V</t>
-  </si>
-  <si>
-    <t>cam1-E23</t>
-  </si>
-  <si>
-    <t>E31V,E140V</t>
-  </si>
-  <si>
-    <t>E31|E140&gt;E141</t>
-  </si>
-  <si>
-    <t>E31V,E141V</t>
-  </si>
-  <si>
-    <t>cam1-E24</t>
-  </si>
-  <si>
-    <t>E31V,E104V</t>
-  </si>
-  <si>
-    <t>E31|E104&gt;E105</t>
-  </si>
-  <si>
-    <t>E31V,E105V</t>
-  </si>
-  <si>
-    <t>cam1-E3</t>
-  </si>
-  <si>
-    <t>E31V,E67V,E140V</t>
-  </si>
-  <si>
-    <t>E31|E67|E140&gt;E141</t>
-  </si>
-  <si>
-    <t>E31V,E67V,E141V</t>
-  </si>
-  <si>
-    <t>cam1-E4</t>
-  </si>
-  <si>
-    <t>E31V,E67V,E104V</t>
-  </si>
-  <si>
-    <t>E31|E67|E104&gt;E105</t>
-  </si>
-  <si>
-    <t>E31V,E67V,E105V</t>
-  </si>
-  <si>
-    <t>cam1-F116</t>
-  </si>
-  <si>
-    <t>R116F</t>
-  </si>
-  <si>
-    <t>R117F</t>
-  </si>
-  <si>
-    <t>cam1-S116</t>
-  </si>
-  <si>
-    <t>R116S</t>
-  </si>
-  <si>
-    <t>R117S</t>
-  </si>
-  <si>
     <t>SPAC3H5.06c</t>
   </si>
   <si>
@@ -2058,24 +1881,6 @@
     <t>K111D,A112D,R196D,N197D,R338D,G339D</t>
   </si>
   <si>
-    <t>SPCC777.05</t>
-  </si>
-  <si>
-    <t>gtr2-Q61L</t>
-  </si>
-  <si>
-    <t>amino_acid_insertion_and_mutation</t>
-  </si>
-  <si>
-    <t>Q61L</t>
-  </si>
-  <si>
-    <t>Q61&gt;Q60</t>
-  </si>
-  <si>
-    <t>Q60L</t>
-  </si>
-  <si>
     <t>SPCC777.14</t>
   </si>
   <si>
@@ -2256,15 +2061,6 @@
     <t>PMID:24186976</t>
   </si>
   <si>
-    <t>PMID:2690071</t>
-  </si>
-  <si>
-    <t>PMID:7657644</t>
-  </si>
-  <si>
-    <t>PMID:7657644,PMID:9264467</t>
-  </si>
-  <si>
     <t>PMID:9693370</t>
   </si>
   <si>
@@ -2433,9 +2229,6 @@
     <t>PMID:31911490</t>
   </si>
   <si>
-    <t>PMID:22344254</t>
-  </si>
-  <si>
     <t>PMID:11252721</t>
   </si>
   <si>
@@ -2466,24 +2259,15 @@
     <t>S140A,T201A,T228A,S499A,T636A,T650A,S673A,T690A,S698A</t>
   </si>
   <si>
-    <t>remove: human protein</t>
-  </si>
-  <si>
     <t>PTIP-272-ATIA,PDVP-457-ADVA,PPP-514-AAA,PSVP-538-ASVA,PNLP-1029-AALA</t>
   </si>
   <si>
     <t>D78A</t>
   </si>
   <si>
-    <t>R86A</t>
-  </si>
-  <si>
     <t>E249A,D250A</t>
   </si>
   <si>
-    <t>skip</t>
-  </si>
-  <si>
     <t>T346A,S367A,T384A,S397A,S402A,T426A,S451A,T467A,S490A,S511A,T531A</t>
   </si>
   <si>
@@ -2556,9 +2340,6 @@
     <t>sup35-R642A</t>
   </si>
   <si>
-    <t>canto</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -2593,6 +2374,15 @@
   </si>
   <si>
     <t>K746A,S747A</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>human protein</t>
+  </si>
+  <si>
+    <t>R86G</t>
   </si>
 </sst>
 </file>
@@ -2671,7 +2461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2710,17 +2500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2737,7 +2516,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
@@ -2749,9 +2528,7 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -3075,10 +2852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD75C98-AFEB-684A-B259-57D971722FA0}">
-  <dimension ref="A1:Q163"/>
+  <dimension ref="A1:Q147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K122" workbookViewId="0">
-      <selection activeCell="N147" sqref="N147"/>
+    <sheetView tabSelected="1" topLeftCell="K26" zoomScale="72" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3112,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>694</v>
+        <v>629</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -3124,10 +2901,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>835</v>
+        <v>762</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>836</v>
+        <v>763</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>6</v>
@@ -3142,16 +2919,16 @@
         <v>9</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>837</v>
+        <v>764</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>834</v>
+        <v>761</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>840</v>
+        <v>767</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>833</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3165,7 +2942,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>695</v>
+        <v>630</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>14</v>
@@ -3191,7 +2968,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>696</v>
+        <v>631</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>14</v>
@@ -3217,7 +2994,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>696</v>
+        <v>631</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>14</v>
@@ -3243,7 +3020,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>697</v>
+        <v>632</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>14</v>
@@ -3269,7 +3046,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>698</v>
+        <v>633</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>11</v>
@@ -3295,7 +3072,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>699</v>
+        <v>634</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>14</v>
@@ -3321,7 +3098,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>700</v>
+        <v>635</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>11</v>
@@ -3347,7 +3124,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>701</v>
+        <v>636</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>14</v>
@@ -3373,7 +3150,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>702</v>
+        <v>637</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>14</v>
@@ -3399,7 +3176,7 @@
         <v>46</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>696</v>
+        <v>631</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>14</v>
@@ -3431,7 +3208,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>703</v>
+        <v>638</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
@@ -3465,7 +3242,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>696</v>
+        <v>631</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -3499,7 +3276,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>696</v>
+        <v>631</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
@@ -3533,7 +3310,7 @@
         <v>61</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>696</v>
+        <v>631</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>11</v>
@@ -3567,7 +3344,7 @@
         <v>65</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>696</v>
+        <v>631</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -3601,7 +3378,7 @@
         <v>68</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>696</v>
+        <v>631</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>11</v>
@@ -3635,7 +3412,7 @@
         <v>71</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>696</v>
+        <v>631</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>11</v>
@@ -3669,7 +3446,7 @@
         <v>74</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>696</v>
+        <v>631</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
@@ -3701,7 +3478,7 @@
         <v>77</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>704</v>
+        <v>639</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
@@ -3735,7 +3512,7 @@
         <v>82</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>705</v>
+        <v>640</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>11</v>
@@ -3769,7 +3546,7 @@
         <v>86</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>705</v>
+        <v>640</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
@@ -3803,7 +3580,7 @@
         <v>91</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>706</v>
+        <v>641</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>11</v>
@@ -3837,7 +3614,7 @@
         <v>95</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>706</v>
+        <v>641</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
@@ -3871,7 +3648,7 @@
         <v>99</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>706</v>
+        <v>641</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>11</v>
@@ -3905,7 +3682,7 @@
         <v>103</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>707</v>
+        <v>642</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>11</v>
@@ -3939,7 +3716,7 @@
         <v>108</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>708</v>
+        <v>643</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>11</v>
@@ -3973,7 +3750,7 @@
         <v>112</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>708</v>
+        <v>643</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>11</v>
@@ -4007,7 +3784,7 @@
         <v>116</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>708</v>
+        <v>643</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>11</v>
@@ -4041,7 +3818,7 @@
         <v>120</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>708</v>
+        <v>643</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>11</v>
@@ -4075,7 +3852,7 @@
         <v>124</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>708</v>
+        <v>643</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>11</v>
@@ -4109,7 +3886,7 @@
         <v>128</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>708</v>
+        <v>643</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>11</v>
@@ -4143,7 +3920,7 @@
         <v>132</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>708</v>
+        <v>643</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>11</v>
@@ -4177,7 +3954,7 @@
         <v>136</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>708</v>
+        <v>643</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>11</v>
@@ -4211,7 +3988,7 @@
         <v>140</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>708</v>
+        <v>643</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>11</v>
@@ -4245,7 +4022,7 @@
         <v>146</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>709</v>
+        <v>644</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>11</v>
@@ -4260,7 +4037,7 @@
         <v>149</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>794</v>
+        <v>725</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4274,7 +4051,7 @@
         <v>151</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>710</v>
+        <v>645</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>11</v>
@@ -4303,7 +4080,7 @@
         <v>156</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>711</v>
+        <v>646</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>11</v>
@@ -4332,7 +4109,7 @@
         <v>161</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>712</v>
+        <v>647</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>11</v>
@@ -4361,7 +4138,7 @@
         <v>165</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>712</v>
+        <v>647</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>11</v>
@@ -4390,7 +4167,7 @@
         <v>169</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>713</v>
+        <v>648</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>11</v>
@@ -4419,7 +4196,7 @@
         <v>174</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>714</v>
+        <v>649</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>11</v>
@@ -4448,7 +4225,7 @@
         <v>179</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>715</v>
+        <v>650</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>11</v>
@@ -4477,7 +4254,7 @@
         <v>183</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>715</v>
+        <v>650</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>11</v>
@@ -4506,7 +4283,7 @@
         <v>186</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>716</v>
+        <v>651</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>11</v>
@@ -4535,7 +4312,7 @@
         <v>189</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>715</v>
+        <v>650</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>11</v>
@@ -4564,7 +4341,7 @@
         <v>193</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>717</v>
+        <v>652</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>11</v>
@@ -4593,7 +4370,7 @@
         <v>196</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>718</v>
+        <v>653</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>11</v>
@@ -4611,7 +4388,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>144</v>
       </c>
@@ -4622,7 +4399,7 @@
         <v>201</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>719</v>
+        <v>654</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>11</v>
@@ -4640,7 +4417,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>144</v>
       </c>
@@ -4651,7 +4428,7 @@
         <v>205</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>719</v>
+        <v>654</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>11</v>
@@ -4669,7 +4446,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>144</v>
       </c>
@@ -4680,7 +4457,7 @@
         <v>210</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>720</v>
+        <v>655</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>11</v>
@@ -4695,10 +4472,10 @@
         <v>213</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>144</v>
       </c>
@@ -4709,7 +4486,7 @@
         <v>215</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>721</v>
+        <v>656</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>11</v>
@@ -4721,10 +4498,10 @@
         <v>217</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>144</v>
       </c>
@@ -4735,7 +4512,7 @@
         <v>219</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>722</v>
+        <v>657</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>11</v>
@@ -4753,7 +4530,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>144</v>
       </c>
@@ -4764,7 +4541,7 @@
         <v>224</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>723</v>
+        <v>658</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>225</v>
@@ -4776,10 +4553,10 @@
         <v>227</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>144</v>
       </c>
@@ -4790,7 +4567,7 @@
         <v>229</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>724</v>
+        <v>659</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>11</v>
@@ -4805,10 +4582,10 @@
         <v>232</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>144</v>
       </c>
@@ -4819,7 +4596,7 @@
         <v>234</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>725</v>
+        <v>660</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>11</v>
@@ -4834,10 +4611,10 @@
         <v>237</v>
       </c>
       <c r="N56" s="9" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>144</v>
       </c>
@@ -4848,7 +4625,7 @@
         <v>238</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>726</v>
+        <v>661</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>11</v>
@@ -4863,10 +4640,10 @@
         <v>241</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>242</v>
       </c>
@@ -4877,7 +4654,7 @@
         <v>243</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>696</v>
+        <v>631</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>11</v>
@@ -4901,10 +4678,10 @@
       </c>
       <c r="M58" s="6"/>
       <c r="N58" s="5" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>242</v>
       </c>
@@ -4915,7 +4692,7 @@
         <v>248</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>696</v>
+        <v>631</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>11</v>
@@ -4939,10 +4716,10 @@
       </c>
       <c r="M59" s="6"/>
       <c r="N59" s="5" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>144</v>
       </c>
@@ -4953,7 +4730,7 @@
         <v>254</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>727</v>
+        <v>662</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>11</v>
@@ -4968,10 +4745,13 @@
         <v>257</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>772</v>
+      </c>
+      <c r="Q60" s="9" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>144</v>
       </c>
@@ -4982,7 +4762,7 @@
         <v>259</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>728</v>
+        <v>663</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>11</v>
@@ -4994,10 +4774,10 @@
         <v>261</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>144</v>
       </c>
@@ -5008,7 +4788,7 @@
         <v>263</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>729</v>
+        <v>664</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>11</v>
@@ -5023,10 +4803,10 @@
         <v>266</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>144</v>
       </c>
@@ -5037,7 +4817,7 @@
         <v>268</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>730</v>
+        <v>665</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>11</v>
@@ -5052,10 +4832,10 @@
         <v>271</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>144</v>
       </c>
@@ -5066,7 +4846,7 @@
         <v>273</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>731</v>
+        <v>666</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>11</v>
@@ -5081,471 +4861,477 @@
         <v>276</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B65" s="13" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="13" t="s">
+      <c r="D65" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="J65" s="13" t="s">
+      <c r="J65" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="L65" s="13" t="s">
+      <c r="L65" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="N65" s="14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B66" s="13" t="s">
+      <c r="N65" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="13" t="s">
+      <c r="D66" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="J66" s="13" t="s">
+      <c r="J66" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="L66" s="13" t="s">
+      <c r="L66" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="N66" s="14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C67" s="13" t="s">
+      <c r="N66" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D67" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="13" t="s">
+      <c r="C67" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="J67" s="13" t="s">
+      <c r="D67" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="L67" s="13" t="s">
+      <c r="J67" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="N67" s="14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C68" s="13" t="s">
+      <c r="N67" s="9" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D68" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="13" t="s">
+      <c r="C68" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="J68" s="13" t="s">
+      <c r="D68" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="L68" s="13" t="s">
+      <c r="J68" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="N68" s="14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C69" s="13" t="s">
+      <c r="L68" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="D69" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="13" t="s">
+      <c r="N68" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="J69" s="13" t="s">
+      <c r="C69" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="L69" s="13" t="s">
+      <c r="D69" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="N69" s="14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C70" s="13" t="s">
+      <c r="J69" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D70" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="13" t="s">
+      <c r="L69" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="J70" s="13" t="s">
+      <c r="N69" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="L70" s="13" t="s">
+      <c r="C70" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="N70" s="14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C71" s="13" t="s">
+      <c r="D70" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D71" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="13" t="s">
+      <c r="J70" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J71" s="13" t="s">
+      <c r="L70" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="L71" s="13" t="s">
+      <c r="N70" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="N71" s="14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C72" s="13" t="s">
+      <c r="D71" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D72" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="13" t="s">
+      <c r="J71" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="J72" s="13" t="s">
+      <c r="L71" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="L72" s="13" t="s">
+      <c r="N71" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="N72" s="14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C73" s="13" t="s">
+      <c r="D72" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D73" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="13" t="s">
+      <c r="J72" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="L72" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="L73" s="13" t="s">
+      <c r="N72" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="N73" s="14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C74" s="13" t="s">
+      <c r="D73" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D74" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="13" t="s">
+      <c r="J73" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="L73" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="L74" s="13" t="s">
+      <c r="N73" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="N74" s="14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C75" s="13" t="s">
+      <c r="C74" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D75" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="13" t="s">
+      <c r="D74" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="J75" s="13" t="s">
+      <c r="G74" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="L75" s="13" t="s">
+      <c r="H74" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="N75" s="14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C76" s="13" t="s">
+      <c r="J74" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D76" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="13" t="s">
+      <c r="L74" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="J76" s="13" t="s">
+      <c r="N74" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="P74" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="L76" s="13" t="s">
+      <c r="C75" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="N76" s="14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C77" s="13" t="s">
+      <c r="D75" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D77" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="13" t="s">
+      <c r="H75" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="J77" s="13" t="s">
+      <c r="J75" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="L77" s="13" t="s">
+      <c r="N75" s="9" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="N77" s="14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C78" s="13" t="s">
+      <c r="C76" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="D78" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="13" t="s">
+      <c r="D76" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="N76" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="J78" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="L78" s="13" t="s">
+      <c r="D77" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="N78" s="14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C79" s="13" t="s">
+      <c r="D78" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="D79" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="13" t="s">
+      <c r="J78" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="J79" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="L79" s="13" t="s">
+      <c r="L78" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="N79" s="14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N78" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>735</v>
+        <v>652</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>339</v>
+        <v>191</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="81" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5553,28 +5339,28 @@
         <v>144</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>735</v>
+        <v>653</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>342</v>
+        <v>197</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>343</v>
+        <v>198</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>344</v>
+        <v>199</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>344</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5582,25 +5368,28 @@
         <v>144</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>346</v>
-      </c>
       <c r="D82" s="8" t="s">
-        <v>736</v>
+        <v>649</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>347</v>
+        <v>175</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="N82" s="9" t="s">
-        <v>814</v>
+        <v>176</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="N82" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5608,28 +5397,25 @@
         <v>144</v>
       </c>
       <c r="B83" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="J83" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="L83" s="8" t="s">
-        <v>353</v>
-      </c>
       <c r="N83" s="8" t="s">
-        <v>353</v>
+        <v>769</v>
       </c>
     </row>
     <row r="84" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5637,28 +5423,25 @@
         <v>144</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="L84" s="8" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>358</v>
+        <v>770</v>
       </c>
     </row>
     <row r="85" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5666,28 +5449,28 @@
         <v>144</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>739</v>
+        <v>680</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>363</v>
+        <v>736</v>
       </c>
     </row>
     <row r="86" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5695,28 +5478,28 @@
         <v>144</v>
       </c>
       <c r="B86" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="L86" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="J86" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>367</v>
-      </c>
       <c r="N86" s="8" t="s">
-        <v>367</v>
+        <v>737</v>
       </c>
     </row>
     <row r="87" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5724,28 +5507,28 @@
         <v>144</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>741</v>
+        <v>681</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5753,28 +5536,28 @@
         <v>144</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>741</v>
+        <v>682</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>373</v>
+        <v>367</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="L88" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="N88" s="8" t="s">
-        <v>375</v>
+        <v>369</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5782,37 +5565,28 @@
         <v>144</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>742</v>
+        <v>682</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="L89" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="N89" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="P89" s="9" t="s">
-        <v>379</v>
+        <v>373</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="90" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5820,28 +5594,28 @@
         <v>144</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>743</v>
+        <v>683</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="N90" s="9" t="s">
-        <v>841</v>
+        <v>377</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="N90" s="8" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5849,57 +5623,61 @@
         <v>144</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>716</v>
+        <v>684</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>187</v>
+        <v>381</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>135</v>
+        <v>382</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>188</v>
+        <v>383</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>188</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="O91" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="P91" s="8"/>
     </row>
     <row r="92" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B92" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="J92" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="J92" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="L92" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="N92" s="8" t="s">
-        <v>195</v>
+      <c r="N92" s="9" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="93" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5907,28 +5685,28 @@
         <v>144</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C93" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="8" t="s">
+      <c r="J93" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="J93" s="8" t="s">
+      <c r="L93" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="L93" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="N93" s="8" t="s">
-        <v>394</v>
+      <c r="N93" s="9" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="94" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5936,28 +5714,28 @@
         <v>144</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C94" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="D94" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="8" t="s">
+      <c r="J94" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="J94" s="8" t="s">
+      <c r="L94" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="L94" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="N94" s="8" t="s">
-        <v>398</v>
+      <c r="N94" s="9" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="95" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5965,13 +5743,13 @@
         <v>144</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>399</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>717</v>
+        <v>688</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>11</v>
@@ -5980,13 +5758,13 @@
         <v>400</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>191</v>
+        <v>401</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="N95" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="N95" s="9" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="96" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5994,31 +5772,31 @@
         <v>144</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>718</v>
+        <v>689</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>11</v>
+        <v>405</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>197</v>
+        <v>406</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="L96" s="8" t="s">
-        <v>199</v>
+        <v>408</v>
       </c>
       <c r="N96" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>144</v>
       </c>
@@ -6026,458 +5804,487 @@
         <v>403</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>11</v>
+        <v>405</v>
       </c>
       <c r="F97" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="N98" s="9" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="N99" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="J100" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="L100" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="N100" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q100" s="9" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="N101" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L102" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="N103" s="7" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="N104" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="N105" s="7" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="L106" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="N106" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="N107" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="J108" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="L108" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="N108" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="J97" s="8" t="s">
+      <c r="J109" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="L97" s="8" t="s">
+      <c r="L109" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="N97" s="8" t="s">
+      <c r="N109" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="98" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="J98" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="N98" s="8" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="J99" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="N99" s="8" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="J100" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="L100" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="N100" s="8" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="J101" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="L101" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="N101" s="8" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="J102" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="L102" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="N102" s="8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="H103" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="J103" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="N103" s="9" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="H104" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="J104" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="N104" s="9" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="J105" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="L105" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="N105" s="8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="J106" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="L106" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="N106" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="O106" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="P106" s="8"/>
-    </row>
-    <row r="107" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="H107" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="J107" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="N107" s="9" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="J108" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="L108" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="N108" s="9" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="J109" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="L109" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="N109" s="9" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>756</v>
+        <v>697</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="L110" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="N110" s="9" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+      <c r="N110" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>757</v>
+        <v>698</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>464</v>
+        <v>11</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="H111" s="8" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>467</v>
+        <v>478</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>479</v>
       </c>
       <c r="N111" s="8" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>757</v>
+        <v>699</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>464</v>
+        <v>11</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="H112" s="8" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>471</v>
+        <v>482</v>
+      </c>
+      <c r="L112" s="8" t="s">
+        <v>483</v>
       </c>
       <c r="N112" s="8" t="s">
-        <v>838</v>
+        <v>483</v>
       </c>
     </row>
     <row r="113" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6485,28 +6292,28 @@
         <v>144</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>758</v>
+        <v>700</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>474</v>
+        <v>187</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>475</v>
+        <v>135</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="N113" s="9" t="s">
-        <v>816</v>
+        <v>188</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6514,28 +6321,28 @@
         <v>144</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>759</v>
+        <v>701</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>478</v>
+        <v>190</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>479</v>
+        <v>191</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>480</v>
+        <v>192</v>
       </c>
       <c r="N114" s="8" t="s">
-        <v>480</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6543,31 +6350,28 @@
         <v>144</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>760</v>
+        <v>652</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>483</v>
+        <v>194</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>484</v>
+        <v>191</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>485</v>
+        <v>195</v>
       </c>
       <c r="N115" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="Q115" s="9" t="s">
-        <v>818</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6575,197 +6379,173 @@
         <v>144</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>487</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>761</v>
+        <v>702</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F116" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="N116" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="J116" s="8" t="s">
+      <c r="D117" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="L116" s="8" t="s">
+      <c r="J117" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="N116" s="8" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B117" s="7" t="s">
+      <c r="L117" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="N117" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="D117" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="7" t="s">
+      <c r="D118" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J118" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="L118" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N118" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="I117" s="7" t="s">
+      <c r="C119" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="J117" s="7" t="s">
+      <c r="D119" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="K117" s="7" t="s">
+      <c r="J119" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="L117" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="N117" s="6" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="C118" s="7" t="s">
+      <c r="L119" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D118" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="7" t="s">
+      <c r="N119" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" s="12" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="H118" s="7" t="s">
+      <c r="C120" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="I118" s="7" t="s">
+      <c r="D120" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="J118" s="7" t="s">
+      <c r="J120" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="K118" s="7" t="s">
+      <c r="L120" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="N118" s="7" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="C119" s="7" t="s">
+      <c r="N120" s="12" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" s="9" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="D119" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="7" t="s">
+      <c r="C121" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="H119" s="7" t="s">
+      <c r="D121" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="I119" s="7" t="s">
+      <c r="J121" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="J119" s="7" t="s">
+      <c r="L121" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="K119" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="N119" s="7" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="K120" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="N120" s="7" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="J121" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="L121" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="N121" s="8" t="s">
-        <v>519</v>
+      <c r="N121" s="9" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="122" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6773,28 +6553,28 @@
         <v>144</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>763</v>
+        <v>705</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="N122" s="8" t="s">
-        <v>523</v>
+        <v>510</v>
+      </c>
+      <c r="N122" s="9" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="123" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6802,28 +6582,28 @@
         <v>144</v>
       </c>
       <c r="B123" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="L123" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="C123" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="J123" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="L123" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="N123" s="8" t="s">
-        <v>527</v>
+      <c r="N123" s="9" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="124" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6831,28 +6611,31 @@
         <v>144</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>764</v>
+        <v>707</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>175</v>
+        <v>518</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>176</v>
+        <v>519</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>177</v>
+        <v>520</v>
       </c>
       <c r="N124" s="8" t="s">
-        <v>177</v>
+        <v>754</v>
+      </c>
+      <c r="Q124" s="9" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="125" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6860,28 +6643,31 @@
         <v>144</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>765</v>
+        <v>708</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="N125" s="8" t="s">
-        <v>534</v>
+        <v>525</v>
+      </c>
+      <c r="Q125" s="9" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="126" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6889,28 +6675,31 @@
         <v>144</v>
       </c>
       <c r="B126" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="L126" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="C126" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="J126" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="L126" s="8" t="s">
-        <v>538</v>
-      </c>
       <c r="N126" s="8" t="s">
-        <v>538</v>
+        <v>530</v>
+      </c>
+      <c r="Q126" s="9" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="127" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6918,28 +6707,31 @@
         <v>144</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>767</v>
+        <v>709</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="N127" s="8" t="s">
-        <v>542</v>
+        <v>534</v>
+      </c>
+      <c r="Q127" s="9" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="128" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6947,28 +6739,28 @@
         <v>144</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>768</v>
+        <v>710</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>187</v>
+        <v>537</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>135</v>
+        <v>538</v>
       </c>
       <c r="L128" s="8" t="s">
-        <v>188</v>
+        <v>539</v>
       </c>
       <c r="N128" s="8" t="s">
-        <v>188</v>
+        <v>756</v>
       </c>
     </row>
     <row r="129" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6976,28 +6768,28 @@
         <v>144</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="C129" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="L129" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J129" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="L129" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="N129" s="8" t="s">
-        <v>192</v>
+        <v>544</v>
       </c>
     </row>
     <row r="130" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7005,28 +6797,28 @@
         <v>144</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>545</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>194</v>
+        <v>546</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>191</v>
+        <v>543</v>
       </c>
       <c r="L130" s="8" t="s">
-        <v>195</v>
+        <v>547</v>
       </c>
       <c r="N130" s="8" t="s">
-        <v>195</v>
+        <v>547</v>
       </c>
     </row>
     <row r="131" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7034,28 +6826,35 @@
         <v>144</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>770</v>
+        <v>712</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>191</v>
+        <v>551</v>
       </c>
       <c r="L131" s="8" t="s">
-        <v>401</v>
+        <v>552</v>
       </c>
       <c r="N131" s="8" t="s">
-        <v>401</v>
+        <v>552</v>
+      </c>
+      <c r="O131" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="P131" s="8"/>
+      <c r="Q131" s="9" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="132" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7063,28 +6862,31 @@
         <v>144</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>766</v>
+        <v>713</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="L132" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="N132" s="8" t="s">
-        <v>550</v>
+        <v>557</v>
+      </c>
+      <c r="N132" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q132" s="9" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="133" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7092,28 +6894,28 @@
         <v>144</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>197</v>
+        <v>560</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>198</v>
+        <v>561</v>
       </c>
       <c r="L133" s="8" t="s">
-        <v>199</v>
+        <v>562</v>
       </c>
       <c r="N133" s="8" t="s">
-        <v>199</v>
+        <v>757</v>
       </c>
     </row>
     <row r="134" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7121,86 +6923,96 @@
         <v>144</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>771</v>
+        <v>715</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="L134" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="N134" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" s="12" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>772</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="J135" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="L135" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="N135" s="12" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" s="9" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+      <c r="N134" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="Q134" s="9" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="J135" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="L135" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="N135" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>773</v>
+        <v>717</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="N136" s="9" t="s">
-        <v>823</v>
+        <v>577</v>
+      </c>
+      <c r="N136" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="O136" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="P136" s="8"/>
+      <c r="Q136" s="9" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="137" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7208,28 +7020,28 @@
         <v>144</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>773</v>
+        <v>718</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="N137" s="9" t="s">
-        <v>824</v>
+        <v>582</v>
+      </c>
+      <c r="N137" s="8" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="138" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7237,28 +7049,28 @@
         <v>144</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>774</v>
+        <v>719</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="N138" s="9" t="s">
-        <v>825</v>
+        <v>587</v>
+      </c>
+      <c r="N138" s="8" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="139" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7266,31 +7078,28 @@
         <v>144</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>775</v>
+        <v>720</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="L139" s="8" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="N139" s="8" t="s">
-        <v>826</v>
-      </c>
-      <c r="Q139" s="9" t="s">
-        <v>818</v>
+        <v>592</v>
       </c>
     </row>
     <row r="140" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7298,31 +7107,28 @@
         <v>144</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>776</v>
+        <v>720</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="L140" s="8" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="N140" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q140" s="9" t="s">
-        <v>818</v>
+        <v>596</v>
       </c>
     </row>
     <row r="141" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7330,31 +7136,28 @@
         <v>144</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>777</v>
+        <v>721</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="L141" s="8" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="N141" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q141" s="9" t="s">
-        <v>827</v>
+        <v>601</v>
       </c>
     </row>
     <row r="142" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7362,31 +7165,28 @@
         <v>144</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>777</v>
+        <v>722</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="L142" s="8" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="N142" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q142" s="9" t="s">
-        <v>827</v>
+        <v>606</v>
       </c>
     </row>
     <row r="143" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7394,28 +7194,28 @@
         <v>144</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>778</v>
+        <v>723</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="L143" s="8" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="N143" s="8" t="s">
-        <v>828</v>
+        <v>611</v>
       </c>
     </row>
     <row r="144" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7423,96 +7223,89 @@
         <v>144</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>779</v>
+        <v>724</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="L144" s="8" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="N144" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>779</v>
+        <v>724</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="L145" s="8" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="N145" s="8" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>780</v>
+        <v>724</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="L146" s="8" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="N146" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="O146" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="P146" s="8"/>
-      <c r="Q146" s="9" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>144</v>
       </c>
@@ -7520,508 +7313,25 @@
         <v>612</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>781</v>
+        <v>724</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="J147" s="8" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="L147" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="N147" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q147" s="9" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="J148" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="L148" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="N148" s="8" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="J149" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="L149" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="N149" s="9" t="s">
-        <v>830</v>
-      </c>
-      <c r="Q149" s="9" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="C150" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="D150" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="J150" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="L150" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="N150" s="8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="J151" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="L151" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="N151" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="O151" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="P151" s="8"/>
-      <c r="Q151" s="9" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>786</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="J152" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="L152" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="N152" s="8" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>787</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="J153" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="L153" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="N153" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="J154" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="L154" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="N154" s="8" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="J155" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="L155" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="N155" s="8" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="J156" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="L156" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="N156" s="8" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="J157" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="L157" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="N157" s="8" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="F158" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="G158" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J158" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="L158" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="N158" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="Q158" s="9" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="J159" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="L159" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="N159" s="8" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="J160" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="L160" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="N160" s="8" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="J161" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="L161" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="N161" s="8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E162" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="J162" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="L162" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="N162" s="8" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F163" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="J163" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="L163" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="N163" s="8" t="s">
-        <v>693</v>
+      <c r="N147" s="8" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>

--- a/manual_fixes_pombase/allele_needs_supervision.xlsx
+++ b/manual_fixes_pombase/allele_needs_supervision.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manu/Documents/Projects/allele_qc/manual_fixes_pombase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85CB1F8-2371-744E-B07D-F3BF0926714C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DC2ED0-BD04-2541-90D8-617784A908E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25620" yWindow="-2180" windowWidth="26600" windowHeight="16560" xr2:uid="{63853679-EB03-5D4A-AFFA-6B392376BA53}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14620" xr2:uid="{63853679-EB03-5D4A-AFFA-6B392376BA53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="allele_needs_supervision" localSheetId="0">Sheet1!$A$1:$M$147</definedName>
+    <definedName name="allele_needs_supervision" localSheetId="0">Sheet1!$A$1:$M$146</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="770">
   <si>
     <t>fix_type</t>
   </si>
@@ -369,9 +369,6 @@
     <t>K597</t>
   </si>
   <si>
-    <t>dna2ts</t>
-  </si>
-  <si>
     <t>L1097S</t>
   </si>
   <si>
@@ -762,18 +759,6 @@
     <t>SPAC23E2.02</t>
   </si>
   <si>
-    <t>lsd2-KK861AA</t>
-  </si>
-  <si>
-    <t>KK861AA</t>
-  </si>
-  <si>
-    <t>KK-861-AA</t>
-  </si>
-  <si>
-    <t>K861&gt;K860/K862</t>
-  </si>
-  <si>
     <t>lsd2-ao</t>
   </si>
   <si>
@@ -2040,9 +2025,6 @@
     <t>PMID:12615979</t>
   </si>
   <si>
-    <t>PMID:17434129</t>
-  </si>
-  <si>
     <t>PMID:23260662,PMID:32295063</t>
   </si>
   <si>
@@ -2383,6 +2365,9 @@
   </si>
   <si>
     <t>R86G</t>
+  </si>
+  <si>
+    <t>dna2-ts</t>
   </si>
 </sst>
 </file>
@@ -2852,10 +2837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD75C98-AFEB-684A-B259-57D971722FA0}">
-  <dimension ref="A1:Q147"/>
+  <dimension ref="A1:Q146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K26" zoomScale="72" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="72" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2889,7 +2874,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -2901,10 +2886,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>6</v>
@@ -2919,16 +2904,16 @@
         <v>9</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="O1" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>761</v>
       </c>
-      <c r="P1" s="10" t="s">
-        <v>767</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2942,7 +2927,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>14</v>
@@ -2968,7 +2953,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>14</v>
@@ -2994,7 +2979,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>14</v>
@@ -3020,7 +3005,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>14</v>
@@ -3046,7 +3031,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>11</v>
@@ -3072,7 +3057,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>14</v>
@@ -3098,7 +3083,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>11</v>
@@ -3124,7 +3109,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>14</v>
@@ -3150,7 +3135,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>14</v>
@@ -3176,7 +3161,7 @@
         <v>46</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>14</v>
@@ -3208,7 +3193,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
@@ -3242,7 +3227,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -3276,7 +3261,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>11</v>
@@ -3310,7 +3295,7 @@
         <v>61</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>11</v>
@@ -3344,7 +3329,7 @@
         <v>65</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -3378,7 +3363,7 @@
         <v>68</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>11</v>
@@ -3412,7 +3397,7 @@
         <v>71</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>11</v>
@@ -3446,7 +3431,7 @@
         <v>74</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
@@ -3478,7 +3463,7 @@
         <v>77</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
@@ -3512,7 +3497,7 @@
         <v>82</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>11</v>
@@ -3546,7 +3531,7 @@
         <v>86</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>11</v>
@@ -3580,7 +3565,7 @@
         <v>91</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>11</v>
@@ -3614,7 +3599,7 @@
         <v>95</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
@@ -3648,7 +3633,7 @@
         <v>99</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>11</v>
@@ -3679,30 +3664,30 @@
         <v>34</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3710,33 +3695,33 @@
         <v>45</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3744,33 +3729,33 @@
         <v>45</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3778,33 +3763,33 @@
         <v>45</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3812,33 +3797,33 @@
         <v>45</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3846,33 +3831,33 @@
         <v>45</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3880,33 +3865,33 @@
         <v>45</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3914,33 +3899,33 @@
         <v>45</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3948,33 +3933,33 @@
         <v>45</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3982,670 +3967,679 @@
         <v>45</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="J36" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="L36" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="L36" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="N36" s="8" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="D37" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="J37" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="L37" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="L37" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="N37" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="J38" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="L38" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="L38" s="8" t="s">
-        <v>159</v>
-      </c>
       <c r="N38" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="J39" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="L39" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="L39" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="N39" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="8" t="s">
+      <c r="J40" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L40" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="J40" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>167</v>
-      </c>
       <c r="N40" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="D41" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="J41" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="L41" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="L41" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="N41" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="D42" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="8" t="s">
+      <c r="J42" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="L42" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="L42" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="N42" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="D43" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="8" t="s">
+      <c r="J43" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="L43" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="L43" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="N43" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="8" t="s">
+      <c r="J44" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="L44" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="N44" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="J45" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L45" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="N45" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="8" t="s">
+      <c r="J46" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="L46" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="L46" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="N46" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="8" t="s">
+      <c r="J47" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L47" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="N47" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="8" t="s">
+      <c r="J48" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="L48" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="L48" s="8" t="s">
-        <v>199</v>
-      </c>
       <c r="N48" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="8" t="s">
+      <c r="J49" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="L49" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="L49" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="N49" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="8" t="s">
+      <c r="J50" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="L50" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="L50" s="8" t="s">
-        <v>208</v>
-      </c>
       <c r="N50" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="8" t="s">
+      <c r="J51" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="L51" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="L51" s="8" t="s">
-        <v>213</v>
-      </c>
       <c r="N51" s="9" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="8" t="s">
+      <c r="J52" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>217</v>
-      </c>
       <c r="N52" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B53" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="D53" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="8" t="s">
+      <c r="J53" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="L53" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="L53" s="8" t="s">
-        <v>222</v>
-      </c>
       <c r="N53" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="D54" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="E54" s="8" t="s">
+      <c r="F54" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="J54" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>227</v>
-      </c>
       <c r="N54" s="8" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="D55" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="8" t="s">
+      <c r="H55" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="J55" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="J55" s="8" t="s">
-        <v>232</v>
-      </c>
       <c r="N55" s="9" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="56" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="D56" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="8" t="s">
+      <c r="J56" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="L56" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="N56" s="9" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="N56" s="9" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="B57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="8" t="s">
+      <c r="D57" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L57" s="8" t="s">
+      <c r="J57" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="N57" s="9" t="s">
-        <v>730</v>
+      <c r="K57" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M57" s="6"/>
+      <c r="N57" s="5" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>17</v>
@@ -4654,7 +4648,7 @@
         <v>243</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>11</v>
@@ -4678,50 +4672,44 @@
       </c>
       <c r="M58" s="6"/>
       <c r="N58" s="5" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="7" t="s">
+      <c r="C59" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="7" t="s">
+      <c r="D59" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="J59" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="K59" s="7" t="s">
+      <c r="L59" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="L59" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M59" s="6"/>
-      <c r="N59" s="5" t="s">
-        <v>731</v>
+      <c r="N59" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q59" s="9" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>253</v>
@@ -4730,7 +4718,7 @@
         <v>254</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>11</v>
@@ -4741,45 +4729,42 @@
       <c r="J60" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="L60" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="N60" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="Q60" s="9" t="s">
-        <v>773</v>
+      <c r="N60" s="8" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="D61" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="8" t="s">
+      <c r="J61" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="L61" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="N61" s="8" t="s">
-        <v>733</v>
+      <c r="N61" s="9" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>262</v>
@@ -4788,7 +4773,7 @@
         <v>263</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>11</v>
@@ -4803,12 +4788,12 @@
         <v>266</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>734</v>
+        <v>768</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>267</v>
@@ -4817,7 +4802,7 @@
         <v>268</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>11</v>
@@ -4831,13 +4816,13 @@
       <c r="L63" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="N63" s="9" t="s">
-        <v>774</v>
+      <c r="N63" s="8" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="64" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>272</v>
@@ -4846,7 +4831,7 @@
         <v>273</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>11</v>
@@ -4861,50 +4846,50 @@
         <v>276</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>735</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="D65" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="8" t="s">
+      <c r="J65" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="L65" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="L65" s="8" t="s">
-        <v>281</v>
-      </c>
       <c r="N65" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>282</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>11</v>
@@ -4915,42 +4900,42 @@
       <c r="J66" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="L66" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>285</v>
+      <c r="N66" s="9" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="67" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B67" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="D67" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="8" t="s">
+      <c r="J67" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="L67" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="N67" s="9" t="s">
-        <v>742</v>
+      <c r="N67" s="8" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>290</v>
@@ -4959,7 +4944,7 @@
         <v>291</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>11</v>
@@ -4979,7 +4964,7 @@
     </row>
     <row r="69" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>295</v>
@@ -4988,7 +4973,7 @@
         <v>296</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>11</v>
@@ -5008,103 +4993,103 @@
     </row>
     <row r="70" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B70" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="D70" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="8" t="s">
+      <c r="J70" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="J70" s="8" t="s">
+      <c r="L70" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="L70" s="8" t="s">
-        <v>304</v>
-      </c>
       <c r="N70" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="8" t="s">
+      <c r="J71" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="L71" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="L71" s="8" t="s">
-        <v>308</v>
-      </c>
       <c r="N71" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C72" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="8" t="s">
+      <c r="J72" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="J72" s="8" t="s">
+      <c r="L72" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="L72" s="8" t="s">
-        <v>312</v>
-      </c>
       <c r="N72" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>313</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>11</v>
@@ -5112,57 +5097,57 @@
       <c r="F73" s="8" t="s">
         <v>314</v>
       </c>
+      <c r="G73" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>316</v>
+      </c>
       <c r="J73" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="P73" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="L73" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="N73" s="8" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="L74" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="N74" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="P74" s="9" t="s">
-        <v>320</v>
+      <c r="N74" s="9" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="75" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>324</v>
@@ -5171,340 +5156,340 @@
         <v>325</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>675</v>
+        <v>646</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>327</v>
+        <v>186</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="N75" s="9" t="s">
-        <v>768</v>
+        <v>134</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="J77" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>191</v>
-      </c>
       <c r="L77" s="8" t="s">
-        <v>195</v>
+        <v>330</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>195</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C78" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="8" t="s">
+      <c r="J78" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="J78" s="8" t="s">
+      <c r="L78" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="L78" s="8" t="s">
-        <v>335</v>
-      </c>
       <c r="N78" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C79" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="8" t="s">
+      <c r="J79" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L79" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="J79" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="L79" s="8" t="s">
-        <v>339</v>
-      </c>
       <c r="N79" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>341</v>
+        <v>196</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>342</v>
+        <v>198</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>342</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="J82" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="L82" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="N82" s="8" t="s">
-        <v>177</v>
+        <v>763</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B83" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>348</v>
-      </c>
       <c r="J83" s="8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="84" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C84" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="J84" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D84" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="8" t="s">
+      <c r="L84" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="J84" s="8" t="s">
-        <v>349</v>
-      </c>
       <c r="N84" s="8" t="s">
-        <v>770</v>
+        <v>730</v>
       </c>
     </row>
     <row r="85" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B85" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="D85" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="D85" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="8" t="s">
+      <c r="J85" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="L85" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="J85" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="L85" s="8" t="s">
-        <v>356</v>
-      </c>
       <c r="N85" s="8" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="86" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C86" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="D86" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="8" t="s">
+      <c r="J86" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="J86" s="8" t="s">
-        <v>355</v>
       </c>
       <c r="L86" s="8" t="s">
         <v>359</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>737</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>360</v>
@@ -5513,7 +5498,7 @@
         <v>361</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>11</v>
@@ -5521,57 +5506,57 @@
       <c r="F87" s="8" t="s">
         <v>362</v>
       </c>
+      <c r="H87" s="8" t="s">
+        <v>363</v>
+      </c>
       <c r="J87" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="L87" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="N87" s="8" t="s">
-        <v>364</v>
+      <c r="N87" s="9" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B88" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="D88" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D88" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="8" t="s">
+      <c r="H88" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="H88" s="8" t="s">
+      <c r="J88" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="J88" s="8" t="s">
-        <v>369</v>
-      </c>
       <c r="N88" s="9" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>370</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>11</v>
@@ -5579,19 +5564,19 @@
       <c r="F89" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="H89" s="8" t="s">
+      <c r="J89" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="J89" s="8" t="s">
+      <c r="L89" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="N89" s="9" t="s">
-        <v>739</v>
+      <c r="N89" s="8" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>374</v>
@@ -5600,7 +5585,7 @@
         <v>375</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>11</v>
@@ -5617,10 +5602,14 @@
       <c r="N90" s="8" t="s">
         <v>378</v>
       </c>
+      <c r="O90" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="P90" s="8"/>
     </row>
     <row r="91" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>379</v>
@@ -5629,7 +5618,7 @@
         <v>380</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>11</v>
@@ -5637,23 +5626,19 @@
       <c r="F91" s="8" t="s">
         <v>381</v>
       </c>
+      <c r="H91" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="J91" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="L91" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="N91" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="O91" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="P91" s="8"/>
+      <c r="N91" s="9" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="92" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>384</v>
@@ -5662,7 +5647,7 @@
         <v>385</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>11</v>
@@ -5670,57 +5655,57 @@
       <c r="F92" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="H92" s="8" t="s">
+      <c r="J92" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="J92" s="8" t="s">
+      <c r="L92" s="8" t="s">
         <v>388</v>
       </c>
       <c r="N92" s="9" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="93" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B93" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="D93" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="8" t="s">
+      <c r="J93" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="J93" s="8" t="s">
+      <c r="L93" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="L93" s="8" t="s">
-        <v>393</v>
-      </c>
       <c r="N93" s="9" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="94" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>394</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>11</v>
@@ -5735,12 +5720,12 @@
         <v>397</v>
       </c>
       <c r="N94" s="9" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="95" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>398</v>
@@ -5749,123 +5734,123 @@
         <v>399</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="L95" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="N95" s="9" t="s">
-        <v>743</v>
+        <v>403</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="96" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>404</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E96" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="H96" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="H96" s="8" t="s">
+      <c r="J96" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="J96" s="8" t="s">
-        <v>408</v>
-      </c>
       <c r="N96" s="8" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="97" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>409</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>405</v>
+        <v>11</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="H97" s="8" t="s">
+      <c r="J97" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="J97" s="8" t="s">
+      <c r="L97" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="N97" s="8" t="s">
-        <v>765</v>
+      <c r="N97" s="9" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="98" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B98" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="D98" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="8" t="s">
+      <c r="J98" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="J98" s="8" t="s">
+      <c r="L98" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="L98" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="N98" s="9" t="s">
-        <v>744</v>
+      <c r="N98" s="8" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="99" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>418</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>11</v>
@@ -5880,12 +5865,15 @@
         <v>421</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>421</v>
+        <v>739</v>
+      </c>
+      <c r="Q99" s="9" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="100" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>422</v>
@@ -5894,7 +5882,7 @@
         <v>423</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>11</v>
@@ -5909,53 +5897,56 @@
         <v>426</v>
       </c>
       <c r="N100" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="Q100" s="9" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B101" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="D101" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="8" t="s">
+      <c r="D101" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="J101" s="8" t="s">
+      <c r="I101" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="L101" s="8" t="s">
+      <c r="J101" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="N101" s="8" t="s">
-        <v>431</v>
+      <c r="K101" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="102" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>433</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>11</v>
@@ -5963,623 +5954,617 @@
       <c r="F102" s="7" t="s">
         <v>434</v>
       </c>
+      <c r="H102" s="7" t="s">
+        <v>435</v>
+      </c>
       <c r="I102" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L102" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="N102" s="6" t="s">
-        <v>747</v>
+        <v>438</v>
+      </c>
+      <c r="N102" s="7" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="104" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N104" s="7" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="H105" s="7" t="s">
+      <c r="C105" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="I105" s="7" t="s">
+      <c r="D105" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="J105" s="7" t="s">
+      <c r="J105" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="K105" s="7" t="s">
+      <c r="L105" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="N105" s="7" t="s">
-        <v>750</v>
+      <c r="N105" s="8" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="106" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B106" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="D106" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="8" t="s">
+      <c r="J106" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="J106" s="8" t="s">
+      <c r="L106" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="L106" s="8" t="s">
-        <v>460</v>
-      </c>
       <c r="N106" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C107" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="8" t="s">
+      <c r="J107" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="J107" s="8" t="s">
+      <c r="L107" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="L107" s="8" t="s">
-        <v>464</v>
-      </c>
       <c r="N107" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="108" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>465</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>466</v>
+        <v>174</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>467</v>
+        <v>175</v>
       </c>
       <c r="L108" s="8" t="s">
-        <v>468</v>
+        <v>176</v>
       </c>
       <c r="N108" s="8" t="s">
-        <v>468</v>
+        <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B109" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="J109" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="L109" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="D109" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="J109" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="L109" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="N109" s="8" t="s">
-        <v>177</v>
+        <v>470</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B110" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="D110" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D110" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="8" t="s">
+      <c r="J110" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="J110" s="8" t="s">
+      <c r="L110" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="L110" s="8" t="s">
-        <v>475</v>
-      </c>
       <c r="N110" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="111" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C111" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="8" t="s">
+      <c r="J111" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="J111" s="8" t="s">
+      <c r="L111" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="L111" s="8" t="s">
-        <v>479</v>
-      </c>
       <c r="N111" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="112" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>481</v>
+        <v>186</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>482</v>
+        <v>134</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>483</v>
+        <v>187</v>
       </c>
       <c r="N112" s="8" t="s">
-        <v>483</v>
+        <v>187</v>
       </c>
     </row>
     <row r="113" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N113" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>701</v>
+        <v>647</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J114" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="J114" s="8" t="s">
-        <v>191</v>
-      </c>
       <c r="L114" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N114" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>652</v>
+        <v>696</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>194</v>
+        <v>336</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>195</v>
+        <v>337</v>
       </c>
       <c r="N115" s="8" t="s">
-        <v>195</v>
+        <v>337</v>
       </c>
     </row>
     <row r="116" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>341</v>
+        <v>484</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>191</v>
+        <v>485</v>
       </c>
       <c r="L116" s="8" t="s">
-        <v>342</v>
+        <v>486</v>
       </c>
       <c r="N116" s="8" t="s">
-        <v>342</v>
+        <v>486</v>
       </c>
     </row>
     <row r="117" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>698</v>
+        <v>648</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>489</v>
+        <v>196</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>490</v>
+        <v>197</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>491</v>
+        <v>198</v>
       </c>
       <c r="N117" s="8" t="s">
-        <v>491</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="C118" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="J118" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="L118" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="D118" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="J118" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="L118" s="8" t="s">
-        <v>199</v>
-      </c>
       <c r="N118" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B119" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" s="12" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="D119" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="8" t="s">
+      <c r="D119" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="J119" s="8" t="s">
+      <c r="J119" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="L119" s="8" t="s">
+      <c r="L119" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="N119" s="8" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" s="12" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B120" s="11" t="s">
+      <c r="N119" s="12" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" s="9" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="D120" s="11" t="s">
-        <v>704</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="11" t="s">
+      <c r="D120" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="J120" s="11" t="s">
+      <c r="J120" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="L120" s="11" t="s">
+      <c r="L120" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="N120" s="12" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" s="9" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="N120" s="9" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B121" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="D121" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="D121" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="8" t="s">
+      <c r="J121" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="L121" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="J121" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="L121" s="8" t="s">
-        <v>507</v>
-      </c>
       <c r="N121" s="9" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="122" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C122" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="D122" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="8" t="s">
+      <c r="J122" s="8" t="s">
         <v>509</v>
-      </c>
-      <c r="J122" s="8" t="s">
-        <v>506</v>
       </c>
       <c r="L122" s="8" t="s">
         <v>510</v>
       </c>
       <c r="N122" s="9" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="123" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>511</v>
@@ -6588,7 +6573,7 @@
         <v>512</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>11</v>
@@ -6602,13 +6587,16 @@
       <c r="L123" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="N123" s="9" t="s">
-        <v>753</v>
+      <c r="N123" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q123" s="9" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="124" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>516</v>
@@ -6617,7 +6605,7 @@
         <v>517</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>11</v>
@@ -6632,15 +6620,15 @@
         <v>520</v>
       </c>
       <c r="N124" s="8" t="s">
-        <v>754</v>
+        <v>520</v>
       </c>
       <c r="Q124" s="9" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="125" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>521</v>
@@ -6649,7 +6637,7 @@
         <v>522</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>11</v>
@@ -6667,53 +6655,53 @@
         <v>525</v>
       </c>
       <c r="Q125" s="9" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="126" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B126" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="D126" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="D126" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="8" t="s">
+      <c r="J126" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="J126" s="8" t="s">
+      <c r="L126" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="L126" s="8" t="s">
-        <v>530</v>
-      </c>
       <c r="N126" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q126" s="9" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="127" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>531</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>11</v>
@@ -6728,15 +6716,12 @@
         <v>534</v>
       </c>
       <c r="N127" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q127" s="9" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="128" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>535</v>
@@ -6745,7 +6730,7 @@
         <v>536</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>11</v>
@@ -6760,59 +6745,59 @@
         <v>539</v>
       </c>
       <c r="N128" s="8" t="s">
-        <v>756</v>
+        <v>539</v>
       </c>
     </row>
     <row r="129" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B129" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="C129" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="D129" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="8" t="s">
+      <c r="J129" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="L129" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="J129" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="L129" s="8" t="s">
-        <v>544</v>
-      </c>
       <c r="N129" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="130" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C130" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" s="8" t="s">
+      <c r="J130" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="J130" s="8" t="s">
-        <v>543</v>
       </c>
       <c r="L130" s="8" t="s">
         <v>547</v>
@@ -6820,10 +6805,17 @@
       <c r="N130" s="8" t="s">
         <v>547</v>
       </c>
+      <c r="O130" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="P130" s="8"/>
+      <c r="Q130" s="9" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="131" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>548</v>
@@ -6832,7 +6824,7 @@
         <v>549</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>11</v>
@@ -6846,20 +6838,16 @@
       <c r="L131" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="N131" s="8" t="s">
+      <c r="N131" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="O131" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="P131" s="8"/>
       <c r="Q131" s="9" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="132" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>553</v>
@@ -6868,7 +6856,7 @@
         <v>554</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>11</v>
@@ -6882,16 +6870,13 @@
       <c r="L132" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="N132" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q132" s="9" t="s">
-        <v>755</v>
+      <c r="N132" s="8" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="133" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>558</v>
@@ -6900,7 +6885,7 @@
         <v>559</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>11</v>
@@ -6914,13 +6899,16 @@
       <c r="L133" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="N133" s="8" t="s">
-        <v>757</v>
+      <c r="N133" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q133" s="9" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="134" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>563</v>
@@ -6929,7 +6917,7 @@
         <v>564</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>11</v>
@@ -6943,16 +6931,13 @@
       <c r="L134" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="N134" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="Q134" s="9" t="s">
-        <v>746</v>
+      <c r="N134" s="8" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="135" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>568</v>
@@ -6961,7 +6946,7 @@
         <v>569</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>11</v>
@@ -6978,10 +6963,17 @@
       <c r="N135" s="8" t="s">
         <v>572</v>
       </c>
+      <c r="O135" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="P135" s="8"/>
+      <c r="Q135" s="9" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="136" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>573</v>
@@ -6990,7 +6982,7 @@
         <v>574</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>11</v>
@@ -7007,17 +6999,10 @@
       <c r="N136" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="O136" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="P136" s="8"/>
-      <c r="Q136" s="9" t="s">
-        <v>755</v>
-      </c>
     </row>
     <row r="137" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>578</v>
@@ -7026,7 +7011,7 @@
         <v>579</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>11</v>
@@ -7046,7 +7031,7 @@
     </row>
     <row r="138" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>583</v>
@@ -7055,7 +7040,7 @@
         <v>584</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>11</v>
@@ -7075,45 +7060,45 @@
     </row>
     <row r="139" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B139" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C139" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="D139" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="D139" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="8" t="s">
+      <c r="J139" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="J139" s="8" t="s">
+      <c r="L139" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="L139" s="8" t="s">
-        <v>592</v>
-      </c>
       <c r="N139" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="140" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>593</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>11</v>
@@ -7133,7 +7118,7 @@
     </row>
     <row r="141" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>597</v>
@@ -7142,7 +7127,7 @@
         <v>598</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>11</v>
@@ -7162,7 +7147,7 @@
     </row>
     <row r="142" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>602</v>
@@ -7171,7 +7156,7 @@
         <v>603</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>11</v>
@@ -7191,7 +7176,7 @@
     </row>
     <row r="143" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>607</v>
@@ -7200,7 +7185,7 @@
         <v>608</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>11</v>
@@ -7220,118 +7205,89 @@
     </row>
     <row r="144" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="D144" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="D144" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="8" t="s">
+      <c r="J144" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="J144" s="8" t="s">
+      <c r="L144" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="L144" s="8" t="s">
-        <v>616</v>
-      </c>
       <c r="N144" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="145" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C145" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="D145" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="8" t="s">
+      <c r="J145" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="J145" s="8" t="s">
+      <c r="L145" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="L145" s="8" t="s">
-        <v>620</v>
-      </c>
       <c r="N145" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="146" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C146" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="D146" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="8" t="s">
+      <c r="J146" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="J146" s="8" t="s">
+      <c r="L146" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="L146" s="8" t="s">
-        <v>624</v>
-      </c>
       <c r="N146" s="8" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="J147" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="L147" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="N147" s="8" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
